--- a/spreadsheet/macrofree/cost_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/cost_checklist.ja.xlsx
@@ -1064,12 +1064,12 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Azure モニター - データ収集ルールを適用する</t>
+          <t>Azure Monitor - データ収集ルールを適用する</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure モニターのデータ収集ルール -https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-rule-overview</t>
+          <t>Azure Monitor のデータ収集ルール - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-rule-overview</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>基になるデータソースが見つからないバックアップインスタンスを確認します</t>
+          <t>基になるデータソースが見つからないバックアップインスタンスを確認する</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>関連付けられていないサービス(ディスク、NIC、IPアドレスなど)を削除またはアーカイブする</t>
+          <t>関連付けられていないサービス(ディスク、NIC、IPアドレスなど)の削除またはアーカイブ</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>スヌーズと停止の手法を検討する(x日後にサービスをスヌーズし、2回後に停止し、3倍後に削除/割り当て解除する)</t>
+          <t>スヌーズと停止の手法を検討する (x 日後にサービスをスヌーズし、2 回後に停止し、3 回後に削除/割り当て解除する)</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>未使用のリソース (古いバックアップ、ログ、ストレージ アカウントなど) を削除またはアーカイブする</t>
+          <t>未使用のリソース(古いバックアップ、ログ、ストレージアカウントなど)を削除またはアーカイブする</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>ミッションクリティカルでないアプリケーションのサイトリカバリストレージとバックアップのバランスをとることを検討する</t>
+          <t>ミッション クリティカルでないアプリケーションの Site Recovery ストレージとバックアップのバランスを考慮する</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1320,12 +1320,12 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>ワークスペースのログ分析リテンション期間</t>
+          <t>ワークスペースの Log Analytics の保持期間</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>40 種類の Log Analytics ワークスペース間で支出と節約の機会を確認する - 非運用ワークスペースに異なる保持期間とデータ収集を使用する - 認識と階層のサイズ設定のために日次上限を作成する - 日次上限を設定する場合は、上限に達したときにアラートを作成するだけでなく、一定の割合 (90% など) に達したときに通知されるアラート ルールも必ず作成してください。- 可能であればワークスペースの変換を検討する - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr</t>
+          <t>40 の異なる Log Analytics ワークスペース間で支出と節約の機会を確認する - 非運用ワークスペースに異なる保持とデータ収集を使用する - 認識と階層サイズ設定のために日次上限を作成する - 日次上限を設定する場合は、上限に達したときにアラートを作成するだけでなく、ある割合 (90% など) に達したときに通知されるアラート ルールも作成してください。- 可能であればワークスペースの変革を検討する - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>削除ログポリシーと自動化を適用する(必要に応じて、ログをコールドストレージに移動できます)</t>
+          <t>ログのパージポリシーと自動化を適用する(必要に応じて、ログをコールドストレージに移動できます)</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>孤立したリソース ブックの実行 - ゴースト アイテムの削除またはスヌーズ</t>
+          <t>孤立したリソース ブックの実行 - ゴースト アイテムの削除または再通知</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>十分に活用されていないインスタンスのシャットダウン</t>
+          <t>使用率の低いインスタンスのシャットダウン</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1504,12 +1504,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>停止/割り当て解除された VM: ディスクの確認</t>
+          <t>停止/割り当て解除された VM: ディスクを確認する</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>ディスクが本当に必要であることを確認し、必要でない場合は削除します。必要な場合は、下位のストレージ階層を見つけるか、バックアップを使用します。</t>
+          <t>ディスクが本当に必要かどうかを確認し、必要でない場合は削除します。必要な場合は、下位のストレージ階層を見つけるか、バックアップを使用します。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>未使用のストレージを下位階層に移動し、ルールをカスタマイズすることを検討してください - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure</t>
+          <t>未使用のストレージを下位階層に移動し、カスタマイズされたルールを使用することを検討する - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>「DATEで削除」形式の一時アイテムに特定のタグを使用し、毎月のクリーンアップを自動化します</t>
+          <t>「DATEで削除」形式の一時アイテムに特定のタグを使用し、毎月のクリーンアップを自動化</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1633,12 +1633,12 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>DB/アプリのチューニング</t>
+          <t>DB/APP のチューニング</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>データベースの最適化</t>
+          <t>DBの最適化</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
@@ -1675,7 +1675,7 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>DB/アプリのチューニング</t>
+          <t>DB/APP のチューニング</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>マイクロサービス アーキテクチャに向けてアプリを最新化すると、スタック全体ではなく、単一のサービスに従ってアプリをスケーリングできる効果があります</t>
+          <t>マイクロサービス アーキテクチャに向けてアプリをモダナイズすると、スタック全体ではなく、単一のサービスに従ってアプリをスケーリングできる効果があります</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1717,17 +1717,17 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>DB/アプリのチューニング</t>
+          <t>DB/APP のチューニング</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>データベースの最適化</t>
+          <t>DBの最適化</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>DBクエリを最適化すると、パフォーマンスが向上し、ストレージとVMの適切なサイズ設定が可能になります</t>
+          <t>DB クエリを最適化すると、パフォーマンスが向上し、ストレージと VM のサイズが適切になります</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1759,7 +1759,7 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>DB/アプリのチューニング</t>
+          <t>DB/APP のチューニング</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Azure アドバイザー ページの提案から開始します。</t>
+          <t>Azure Advisor ページの提案から開始します。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>アドバイザーが VM の適切なサイズ設定用に構成されていることを確認する</t>
+          <t>Advisor が VM の適切なサイズ設定用に構成されていることを確認する</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>変動費が発生するアプリケーションのコスト アラートを設定する (理想的にはすべてのアプリケーションに対して)</t>
+          <t>変動コストを持つアプリケーションのコスト アラートを設定する (理想的にはすべてのアプリケーションに対して)</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Azure Automation を使用する: 反復的なタスクを自動化すると、時間とリソースを節約し、プロセスのコストを削減できます。</t>
+          <t>Azure Automation を使用する: 反復的なタスクを自動化することで、時間とリソースを節約し、プロセスのコストを削減できます。</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>毎月の支出のベースラインと、ベースラインに対する許容可能な節約目標を確立してみてください(この段階では、新しいサービスは最適化されません)</t>
+          <t>毎月の支出のベースラインと、ベースラインに対して許容できる貯蓄目標を確立してみてください(この段階では、新しいサービスは最適化されません)</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>すべての新しいリソースに #NEW としてタグ付けするポリシーを使用して、コスト最適化ベースラインを確立する</t>
+          <t>すべての新しいリソースに #NEW としてタグを付けるポリシーを使用して、コスト最適化ベースラインを確立します</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>リソースを整理して、コストの洞察と説明責任を最大化</t>
+          <t>リソースを整理してコストの洞察と説明責任を最大化する</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>コスト分析 - サービス名でグループ化された日単位の粒度を使用して、過去 3 か月間の支出を分析し、上位 3 つの支出者を特定します</t>
+          <t>コスト分析では、サービス名でグループ化された日単位の粒度を使用して、過去 3 か月間の支出を分析し、上位 3 人の支出者を特定します</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>コストの急増や異常を毎日チェックする(理想的には自動請求エクスポートを使用)</t>
+          <t>コストの急上昇や異常を毎日確認する(理想的には自動請求エクスポートを使用)</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>詳細な分析または統合のためのコスト検索の自動化</t>
+          <t>詳細な分析や統合のためのコスト検索の自動化</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Azure の無料サービスを活用する: Azure では、DevOps、Azure Container Registry、Azure Logic Apps など、開発と運用のコストを節約するのに役立つ多数の無料サービスを提供しています。</t>
+          <t>Azure の無料サービスを活用する: Azure には、DevOps、Azure Container Registry、Azure Logic Apps など、開発と運用のコストを削減するのに役立つ多数の無料サービスが用意されています。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>コスト配分のためにすべてのサービスにタグを使用することを検討する</t>
+          <t>コスト配分のためにすべてのサービスにタグを使用することを検討してください</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>変更を追跡して迅速に対応するための予約の自動化を検討する</t>
+          <t>変更を追跡し、迅速に対応するために、予約の自動化を検討してください</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2515,17 +2515,17 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>AHUBがすべてのWindows VM、RHEL、およびSQLに適用されていることを確認します</t>
+          <t>AHUBがすべてのWindows VM、RHEL、およびSQLに適用されることを確認します</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>すべての Windows VM でスクリプトを実行する https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server - Windows VM が頻繁に作成される場合は、ポリシーの実装を検討してください。</t>
+          <t>すべての Windows VM でスクリプトを実行する https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- Windows VM が頻繁に作成される場合は、ポリシーの実装を検討してください</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>コスト分析でメーターカテゴリライセンスを検索して確認します</t>
+          <t>コスト分析でメーターカテゴリライセンスを検索して確認してください</t>
         </is>
       </c>
       <c r="E42" s="21" t="n"/>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>該当する場合は、Red Hat ライセンスを確認してください</t>
+          <t>該当する場合は Red Hat ライセンスを確認してください。</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>すでにライセンスをお持ちの場合は、AHUBの下に配置することもできます https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
+          <t>これは、すでにライセンスを持っている場合は、AHUBの下に置くこともできます https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>プランの節約では、一部の App Service プランで 17% が提供されます</t>
+          <t>節約プランでは、一部の App Service プランで 17% が提供されます</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>予約 VM ファミリを柔軟性オプションと統合する (4 から 5 ファミリまで)</t>
+          <t>予約済み VM ファミリを柔軟性オプションで統合 (4 から 5 ファミリ以下)</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Azure 予約インスタンスを利用する: この機能を使用すると、VM を 1 年または 3 年間予約できるため、PAYG 価格と比較して大幅なコスト削減を実現できます。</t>
+          <t>Azure 予約インスタンスを利用する: この機能を使用すると、VM を 1 年または 3 年間予約できるため、PAYG 価格と比較して大幅なコスト削減が実現します。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>動的で最大限の柔軟性を必要とするすべてのワークロードに対する Azure 割引プランの計画</t>
+          <t>動的で最大限の柔軟性を必要とするすべてのワークロードに対応する Azure Savings Plans の計画</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>動的性が低く、あまり変更されないすべてのワークロードに対して Azure 予約を計画します</t>
+          <t>動的ではなく、あまり変更されないすべてのワークロードに対する Azure Reservations の計画</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>より大きなディスクのみを予約できます= &gt;1TiB -</t>
+          <t>より大きなディスクのみ予約可能 =&gt;1TiB -</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2899,12 +2899,12 @@
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>SQL Database AHUB</t>
+          <t>SQL データベース AHUB</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>該当する場合を確認し、ポリシー/変更 https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations を適用する</t>
+          <t>該当するかどうかを確認し、ポリシー/変更 https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations を適用する</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>SQL データベースの予約</t>
+          <t>SQL Database の予約</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>VM +ライセンスパーツ割引(AHUB+3YRI)は約70%割引</t>
+          <t>VM +ライセンス部分割引(ahub+3YRI)は約70%割引</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Azure の予約プランと割引プランの使用率が 100% に近いことを確認するか、それを達成するために必要な変更を加えてください。</t>
+          <t>Azure の予約プランと節約プランの使用率が 100% に近いことを確認するか、それを達成するために必要な変更を加えます。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>予約の使用率が 100% に近いことを確認します。そうでない場合は、許可された SKU ポリシーを適用するか、予約を交換します</t>
+          <t>予約使用率が100%に近いことを確認してください。そうでない場合は、許可された SKU ポリシーを適用するか、予約を交換します</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3061,7 +3061,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は、本番サービスのON/OFFポリシーを計画および適用します</t>
+          <t>可能な場合は、運用サービスの ON/OFF ポリシーを計画し、適用します</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3102,7 +3102,7 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は、非実稼働サービスの自動シャットダウンを使用したオンデマンドポリシーを計画および適用します</t>
+          <t>可能な場合は、非運用サービスの自動シャットダウンを含むオンデマンドポリシーを計画して適用します</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3143,7 +3143,7 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>フラットサイジングではなく、需要に合わせてVMSSを使用することを検討してください</t>
+          <t>フラットなサイジングではなく、需要に合わせてVMSSを使用することを検討してください</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3184,7 +3184,7 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>AKS オートスケーラーを使用してクラスターの使用状況に合わせる (ポッドの要件がスケーラーと一致することを確認する)</t>
+          <t>AKS オートスケーラーを使用してクラスターの使用量と一致させる (ポッドの要件がスケーラーと一致していることを確認する)</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3225,7 +3225,7 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>平均的な使用量に応じて適切なサイズの PaaS サービスを提供し、自動または手動スケーリングでスパイクに対応</t>
+          <t>平均的な使用量に応じた適切なサイズの PaaS サービスを提供し、自動または手動スケーリングでスパイクに対応</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3266,7 +3266,7 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>需要形成の計画 (該当する場合)</t>
+          <t>該当する場合は、需要形成の計画</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3307,7 +3307,7 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
@@ -3349,7 +3349,7 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>該当する場合は、復旧ポイントをコンテナー/アーカイブに移動する (検証)</t>
+          <t>該当する場合は、復旧ポイントを vault-archive に移動します (検証)</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3395,7 +3395,7 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>可能な場合はフォールバックでスポット VM の使用を検討するクラスターの自動終了を検討する https://learn.microsoft.com/azure/databricks/clusters/cluster-config-best-practices#automatic-termination</t>
+          <t>可能な場合はフォールバックでスポット VM の使用を検討するクラスターの自動終了を検討してください https://learn.microsoft.com/azure/databricks/clusters/cluster-config-best-practices#automatic-termination</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3441,7 +3441,7 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
@@ -3487,7 +3487,7 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>関数 -データをローカルにキャッシュする</t>
+          <t>functions -データをローカルにキャッシュする</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3533,7 +3533,7 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>関数 - コールド スタート - [パッケージから実行] 機能を使用します。このようにして、コードは単一のzipファイルとしてダウンロードされます。これにより、たとえば、多くのノードモジュールを持つJavascript関数が大幅に改善される可能性があります。言語固有のツールを使用して、ツリーシェイキングJavascriptアプリケーションなど、パッケージサイズを縮小します。</t>
+          <t>functions - コールド スタート - 「パッケージから実行」機能を使用します。このようにして、コードは単一のzipファイルとしてダウンロードされます。これにより、たとえば、多くのノードモジュールを持つJavascript関数が大幅に改善される可能性があります。言語固有のツールを使用してパッケージサイズを縮小します (ツリーを揺るがす Javascript アプリケーションなど)。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3579,7 +3579,7 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>機能-機能を暖かく保ちます</t>
+          <t>機能 -機能を暖かく保ちます</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3625,7 +3625,7 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>異なる関数で自動スケーリングを使用する場合は、すべてのリソースのすべての自動スケーリングを駆動するものが存在する可能性があります - 別の従量課金プランに移動することを検討してください (CPU の上位プランを検討してください)</t>
+          <t>さまざまな関数で自動スケーリングを使用する場合は、すべてのリソースに対してすべての自動スケーリングを駆動する 1 つが存在する可能性があります - 別の従量課金プランに移行することを検討してください (また、CPU のより高いプランを検討してください)</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3667,7 +3667,7 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>特定のプラン内の関数アプリはすべて一緒にスケーリングされるため、スケーリングに関する問題はプラン内のすべてのアプリに影響を与える可能性があります。</t>
+          <t>特定のプランの関数アプリはすべて一緒にスケーリングされるため、スケーリングに関する問題はプラン内のすべてのアプリに影響を与える可能性があります。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3709,7 +3709,7 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>「待機時間」に対して課金されますか?この質問は通常、非同期操作を実行し、結果を待機する C# 関数 (Task.Delay(1000) を待つ、クライアントを待つなど) のコンテキストで尋ねられます。GetAsync('http://google.com').答えはイエスです - GBの2番目の計算は、関数の開始時刻と終了時刻、およびその期間のメモリ使用量に基づいています。CPU アクティビティに関してその時間に実際に発生することは、計算には考慮されません。この規則の 1 つの例外は、永続関数を使用している場合です。オーケストレーター関数で待機に費やされた時間に対しては課金されません。可能な場合は需要形成技術を適用します (開発環境?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
+          <t>「待機時間」に対して課金されますか?この質問は、通常、非同期操作を実行して結果を待機する C# 関数のコンテキストで尋ねられます (例: await Task.Delay(1000) または await client)。GetAsync('http://google.com') です。答えはイエスです-GB秒の計算は、関数の開始時刻と終了時刻、およびその期間のメモリ使用量に基づいています。その間に CPU アクティビティに関して実際に何が起こるかは、計算には考慮されません。この規則の 1 つの例外は、永続関数を使用している場合です。オーケストレーター関数で待機に費やされた時間に対しては課金されません。可能な場合は、デマンド シェーピング技術を適用します (開発環境?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3751,7 +3751,7 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク コストに対してネットワーク トポロジを評価し、該当する場合はエグレス データとピアリング データを削減します</t>
+          <t>ネットワーク トポロジをネットワーク コストに対して評価し、該当する場合はエグレスとピアリング データを削減します</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3793,7 +3793,7 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>フロントドア - 既定のホームページをオフにするアプリのアプリケーション設定で、AzureWebJobsを無効にするホームページを true に設定します。これにより、PoP に 204 (コンテンツなし) が返されるため、ヘッダー データのみが返されます。</t>
+          <t>Frontdoor - 既定のホームページをオフにするアプリのアプリケーション設定で、AzureWebJobsDisableHomepage を true に設定します。これにより、PoP に 204 (No Content) が返されるため、ヘッダー データのみが返されます。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -3835,7 +3835,7 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>フロントドア - 何も返さないものへのルーティング関数、関数プロキシを設定するか、200 (OK) を返し、コンテンツを送信しないか最小限のコンテンツを送信するルートを Web アプリに追加します。これの利点は、呼び出されたときにログアウトできることです。</t>
+          <t>Frontdoor - 何も返さないものへのルーティング関数または関数プロキシを設定するか、200 (OK) を返し、コンテンツを送信しない、または最小限のコンテンツを送信 するルートを Web アプリに追加します。これの利点は、呼び出されたときにログアウトできることです。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -3877,17 +3877,17 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>PaaS(パーエス)</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>すべての非運用環境に適用できる場合は、Free レベルの使用を検討してください</t>
+          <t>すべての非運用環境に適用可能な場合は、Free レベルの使用を検討してください</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -3919,7 +3919,7 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
@@ -3961,7 +3961,7 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>使用頻度の低いデータのアーカイブ層を検討する</t>
+          <t>使用頻度の低いデータの階層のアーカイブを検討する</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4003,7 +4003,7 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>サイズが階層と一致しないディスク サイズを確認します (つまり、513 GiB のディスクは P30 (1TiB) を支払い、サイズ変更を検討します)。</t>
+          <t>サイズが階層と一致しないディスク サイズを確認します (つまり、513 GiB のディスクは P30 (1TiB) を支払います) サイズ変更を検討します</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4045,7 +4045,7 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>可能であれば、プレミアムやウルトラではなく、標準のSSDを使用することを検討してください</t>
+          <t>可能な場合は、Premium や Ultra ではなく Standard SSD の使用を検討してください</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4087,7 +4087,7 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントの場合は、選択したレベルがトランザクション料金を合計していないことを確認します (次のレベルに移動する方が安価な場合があります)</t>
+          <t>ストレージ アカウントの場合は、選択したレベルによってトランザクション料金が加算されていないことを確認します (次のレベルに移動する方が安くなる可能性があります)</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4129,7 +4129,7 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>ASR の場合、RPO/RTO とレプリケーション スループットで許可されている場合は、標準 SSD ディスクの使用を検討してください</t>
+          <t>ASR の場合は、RPO/RTO とレプリケーション スループットで許可されている場合は、Standard SSD ディスクの使用を検討してください</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4171,7 +4171,7 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウント: ホット レベルや GRS が必要であることを確認する</t>
+          <t>ストレージ アカウント: 必要なホット層や GRS を確認します</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4213,7 +4213,7 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>ディスク - あらゆる場所でのプレミアム SSD ディスクの使用を検証: たとえば、非製品版は標準 SSD またはオンデマンド プレミアム SSD にスワップできます</t>
+          <t>ディスク - あらゆる場所で Premium SSD ディスクの使用を検証します: たとえば、非運用環境は Standard SSD またはオンデマンド Premium SSD にスワップできます</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4255,7 +4255,7 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>コストを管理するための予算を作成し、支出の異常や過剰支出のリスクを利害関係者に自動的に通知するアラートを作成します。</t>
+          <t>予算を作成してコストを管理し、支出の異常や過剰支出のリスクを関係者に自動的に通知するアラートを作成します。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4297,7 +4297,7 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
@@ -4339,7 +4339,7 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>専用 SQL プールのコストを管理するには、使用されていないときにリソースを一時停止します。</t>
+          <t>専用 SQL プールのコストを制御するには、リソースが使用されていないときに一時停止します。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4381,7 +4381,7 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
@@ -4423,7 +4423,7 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
@@ -4465,7 +4465,7 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Azure Synapse コミット ユニット (SCU) を 1 年間購入し、Azure Synapse 分析のコストを節約するための事前購入プランを使用します。</t>
+          <t>Azure Synapse Analytics のコストを節約するために、事前購入プランで Azure Synapse コミット ユニット (SCU) を 1 年間購入します。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4511,17 +4511,17 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>仮想マシン</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>割り込み可能なジョブに SPOT VM を使用する: これらは、割引価格で入札および購入できる VM であり、重要でないワークロードに対してコスト効率の高いソリューションを提供します。</t>
+          <t>割り込み可能なジョブに SPOT VM を使用する: これらは、割引価格で入札および購入できる VM であり、重要でないワークロードにコスト効率の高いソリューションを提供します。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4557,17 +4557,17 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>仮想マシン</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>すべての VM のサイズを適正化する</t>
+          <t>すべての VM の適切なサイズ設定</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4599,17 +4599,17 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>仮想マシン</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>正規化された最新のサイズで VM のサイズをスワップする</t>
+          <t>正規化されたサイズと最新のサイズでサイズの VM をスワップする</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4645,17 +4645,17 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>仮想マシン</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>VM の適切なサイズ設定 - 使用率を 5% 未満で監視することから始めて、最大 40% まで作業する</t>
+          <t>VM の適切なサイズ設定 - 使用率を 5% 未満で監視することから始めて、その後 40% まで作業します</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -4691,17 +4691,17 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>仮想マシン</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションをコンテナー化すると、VM 密度が向上し、スケーリングにかかるコストを節約できます</t>
+          <t>アプリケーションをコンテナー化すると、VM の密度が向上し、スケーリングにかかるコストを節約できます</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -8174,7 +8174,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>このチェックに関連付けられているアクションアイテムがあります</t>
+          <t>このチェックにはアクションアイテムが関連付けられています</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
+          <t>このチェックは検証済みで、これ以上のアクションアイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -8213,7 +8213,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>必須ではありません</t>
+          <t>必要なし</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
+          <t>推奨事項は理解されているが、現在の要件では不要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>適切なサイズ設定</t>
+          <t>適切なサイジング</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">

--- a/spreadsheet/macrofree/cost_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/cost_checklist.ja.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>関連付けられていないサービス(ディスク、NIC、IPアドレスなど)の削除またはアーカイブ</t>
+          <t>関連づけられていないサービス(ディスク、NIC、IPアドレスなど)を削除またはアーカイブする</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1320,12 +1320,12 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>ワークスペースの Log Analytics の保持期間</t>
+          <t>ワークスペースの Log Analytics の保有期間</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>40 の異なる Log Analytics ワークスペース間で支出と節約の機会を確認する - 非運用ワークスペースに異なる保持とデータ収集を使用する - 認識と階層サイズ設定のために日次上限を作成する - 日次上限を設定する場合は、上限に達したときにアラートを作成するだけでなく、ある割合 (90% など) に達したときに通知されるアラート ルールも作成してください。- 可能であればワークスペースの変革を検討する - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr</t>
+          <t>40 の異なるログ分析ワークスペース間で支出と節約の機会を確認する - 非運用ワークスペースに異なる保持とデータ収集を使用する - 認識と階層サイズ設定のための日次上限を作成する - 日次上限を設定する場合は、上限に達したときにアラートを作成するだけでなく、ある割合 (90% など) に達したときに通知されるアラート ルールも作成してください。- 可能であればワークスペースの変革を検討する - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>孤立したリソース ブックの実行 - ゴースト アイテムの削除または再通知</t>
+          <t>孤立したリソース ブックを実行する - ゴースト アイテムの削除または再通知</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>使用率の低いインスタンスのシャットダウン</t>
+          <t>使用率の低いインスタンスをシャットダウンする</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>「DATEで削除」形式の一時アイテムに特定のタグを使用し、毎月のクリーンアップを自動化</t>
+          <t>「DATEで削除」形式の一時的なアイテムに特定のタグを使用し、毎月のクリーンアップを自動化します</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1633,7 +1633,7 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>DB/APP のチューニング</t>
+          <t>DB/アプリのチューニング</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>関連サービスのダウンサイジング(およびパフォーマンスの向上)を目的としたDB最適化の計画</t>
+          <t>関連サービスのダウンサイジング(およびパフォーマンスの向上)を目的としたデータベース最適化の計画</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1675,7 +1675,7 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>DB/APP のチューニング</t>
+          <t>DB/APPのチューニング</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
@@ -1717,7 +1717,7 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>DB/APP のチューニング</t>
+          <t>DB/APPのチューニング</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>DB クエリを最適化すると、パフォーマンスが向上し、ストレージと VM のサイズが適切になります</t>
+          <t>DB クエリを最適化すると、パフォーマンスが向上し、ストレージと VM の適切なサイズ設定が可能になります</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1759,7 +1759,7 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>DB/APP のチューニング</t>
+          <t>DB/APPのチューニング</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>PaaSサービスでデマンドシェーピングを使用すると、コストとパフォーマンスが最適化されます</t>
+          <t>PaaS サービスでデマンド シェーピングを使用すると、コストとパフォーマンスが最適化されます</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Advisor が VM の適切なサイズ設定用に構成されていることを確認する</t>
+          <t>advisor が VM の適切なサイズ設定用に構成されていることを確認する</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>コスト ガバナンス プロセスに合わせて IAC スクリプトまたは DevOps パイプラインを実装することを検討してください</t>
+          <t>コスト ガバナンス プロセスに合わせて IaC スクリプトまたは DevOps パイプラインを実装することを検討してください</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>変動コストを持つアプリケーションのコスト アラートを設定する (理想的にはすべてのアプリケーションに対して)</t>
+          <t>変動費のあるアプリケーション(理想的にはすべてのアプリケーション)のコストアラートを設定します</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>毎月の支出のベースラインと、ベースラインに対して許容できる貯蓄目標を確立してみてください(この段階では、新しいサービスは最適化されません)</t>
+          <t>毎月の支出のベースラインと、ベースラインに対する許容可能な節約目標を確立してみてください(この段階では、新しいサービスは最適化されません)</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>コスト分析では、サービス名でグループ化された日単位の粒度を使用して、過去 3 か月間の支出を分析し、上位 3 人の支出者を特定します</t>
+          <t>コスト分析では、サービス名でグループ化された日次粒度を使用して、過去 3 か月間の支出を分析し、上位 3 人の支出者を特定します</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>詳細な分析や統合のためのコスト検索の自動化</t>
+          <t>詳細な分析や統合のためのコスト検索を自動化</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>コスト配分のためにすべてのサービスにタグを使用することを検討してください</t>
+          <t>コスト配分のためにすべてのサービスにタグを使用することを検討する</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>該当する場合は Red Hat ライセンスを確認してください。</t>
+          <t>該当する場合は Red Hat ライセンスの確認</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>節約プランでは、一部の App Service プランで 17% が提供されます</t>
+          <t>プランを保存すると、一部の App Service プランで 17% が提供されます</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>予約済み VM ファミリを柔軟性オプションで統合 (4 から 5 ファミリ以下)</t>
+          <t>予約済み VM ファミリを柔軟性オプションで統合する (4 から 5 ファミリ以下)</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>動的ではなく、あまり変更されないすべてのワークロードに対する Azure Reservations の計画</t>
+          <t>動的ではなく、あまり変更されないすべてのワークロードに対する Azure の予約を計画する</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>より大きなディスクのみ予約可能 =&gt;1TiB -</t>
+          <t>より大きなディスクのみ予約できます =&gt; 1 TiB -</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>該当するかどうかを確認し、ポリシー/変更 https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations を適用する</t>
+          <t>該当するかどうかを確認し、ポリシー/変更 https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations を適用します</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>VM +ライセンス部分割引(ahub+3YRI)は約70%割引</t>
+          <t>VM +ライセンス部分の割引(ahub + 3YRI)は約70%の割引です</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は、運用サービスの ON/OFF ポリシーを計画し、適用します</t>
+          <t>可能な場合は、運用サービスのオン/オフ ポリシーを計画して適用します</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は、非運用サービスの自動シャットダウンを含むオンデマンドポリシーを計画して適用します</t>
+          <t>可能な場合は、非運用サービスの自動シャットダウンを含むオンデマンド ポリシーを計画して適用します</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>フラットなサイジングではなく、需要に合わせてVMSSを使用することを検討してください</t>
+          <t>需要に合わせて、フラットなサイジングではなく、VMSS の使用を検討してください</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>AKS オートスケーラーを使用してクラスターの使用量と一致させる (ポッドの要件がスケーラーと一致していることを確認する)</t>
+          <t>AKS オートスケーラーを使用してクラスターの使用量に一致させる (ポッドの要件がスケーラーと一致していることを確認する)</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>平均的な使用量に応じた適切なサイズの PaaS サービスを提供し、自動または手動スケーリングでスパイクに対応</t>
+          <t>平均的な使用量に応じた適切なサイズの PaaS サービスを提供し、自動または手動のスケーリングでスパイクに対応</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3400,12 +3400,12 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>データブリック</t>
+          <t>Databricks (データブリック)</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>可能な場合はフォールバックでスポット VM の使用を検討するクラスターの自動終了を検討してください https://learn.microsoft.com/azure/databricks/clusters/cluster-config-best-practices#automatic-termination</t>
+          <t>可能な場合は、フォールバックでスポット VM を使用することを検討してください。クラスターの自動終了を検討してください。</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3418,14 +3418,10 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="inlineStr">
-        <is>
-          <t>https://andrewmatveychuk.com/how-to-audit-azure-hybrid-benefit-usage-with-azure-workbooks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/databricks/clusters/cluster-config-best-practices#automatic-termination</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
@@ -3497,7 +3493,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>functions -データをローカルにキャッシュする</t>
+          <t>関数 - データをローカルにキャッシュする</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3543,7 +3539,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>functions - コールド スタート - 「パッケージから実行」機能を使用します。このようにして、コードは単一のzipファイルとしてダウンロードされます。これにより、たとえば、多くのノードモジュールを持つJavascript関数が大幅に改善される可能性があります。言語固有のツールを使用してパッケージサイズを縮小します (ツリーを揺るがす Javascript アプリケーションなど)。</t>
+          <t>関数 - コールド スタート - 「パッケージから実行」機能を使用します。このようにして、コードは単一のzipファイルとしてダウンロードされます。これにより、たとえば、多くのノードモジュールを持つJavascript関数が大幅に改善される可能性があります。言語固有のツールを使用してパッケージサイズを縮小します (ツリーを揺るがす Javascript アプリケーションなど)。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3589,7 +3585,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>機能 -機能を暖かく保ちます</t>
+          <t>関数 - 関数を暖かく保つ</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3635,7 +3631,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>さまざまな関数で自動スケーリングを使用する場合は、すべてのリソースに対してすべての自動スケーリングを駆動する 1 つが存在する可能性があります - 別の従量課金プランに移行することを検討してください (また、CPU のより高いプランを検討してください)</t>
+          <t>さまざまな関数で自動スケーリングを使用する場合、すべてのリソースのすべての自動スケーリングを駆動する 1 つが存在する可能性があるため、別の従量課金プランに移行することを検討してください (また、CPU のより高いプランを検討してください)</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3719,7 +3715,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>「待機時間」に対して課金されますか?この質問は、通常、非同期操作を実行して結果を待機する C# 関数のコンテキストで尋ねられます (例: await Task.Delay(1000) または await client)。GetAsync('http://google.com') です。答えはイエスです-GB秒の計算は、関数の開始時刻と終了時刻、およびその期間のメモリ使用量に基づいています。その間に CPU アクティビティに関して実際に何が起こるかは、計算には考慮されません。この規則の 1 つの例外は、永続関数を使用している場合です。オーケストレーター関数で待機に費やされた時間に対しては課金されません。可能な場合は、デマンド シェーピング技術を適用します (開発環境?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
+          <t>「待機時間」に対して請求されますか?この質問は、通常、非同期操作を実行して結果を待機する C# 関数のコンテキストで尋ねられます (例: await Task.Delay(1000) や await client)。GetAsync('http://google.com') です。答えはイエスです-GB秒の計算は、関数の開始時刻と終了時刻、およびその期間のメモリ使用量に基づいています。その間に CPU アクティビティに関して実際に何が起こるかは、計算には考慮されません。この規則の 1 つの例外は、永続関数を使用している場合です。オーケストレーター関数で待機に費やされた時間に対しては課金されません。可能な場合は、デマンド シェーピング技術を適用します (開発環境?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3761,7 +3757,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジをネットワーク コストに対して評価し、該当する場合はエグレスとピアリング データを削減します</t>
+          <t>ネットワーク コストに対してネットワーク トポロジを評価し、該当する場合はエグレスとピアリング データを削減します</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3803,7 +3799,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor - 既定のホームページをオフにするアプリのアプリケーション設定で、AzureWebJobsDisableHomepage を true に設定します。これにより、PoP に 204 (No Content) が返されるため、ヘッダー データのみが返されます。</t>
+          <t>Frontdoor - 既定のホームページをオフにするアプリのアプリケーション設定で、AzureWebJobsDisableHomepage を true に設定します。これにより、PoPに204(No Content)が返されるため、ヘッダーデータのみが返されます。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -3845,7 +3841,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor - 何も返さないものへのルーティング関数または関数プロキシを設定するか、200 (OK) を返し、コンテンツを送信しない、または最小限のコンテンツを送信 するルートを Web アプリに追加します。これの利点は、呼び出されたときにログアウトできることです。</t>
+          <t>Frontdoor - 何も返さないものへのルーティング。関数、関数プロキシを設定するか、200 (OK) を返し、コンテンツを送信しない、または最小限のコンテンツを送信 するルートを Web アプリに追加します。これの利点は、呼び出されたときにログアウトできることです。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4013,7 +4009,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>サイズが階層と一致しないディスク サイズを確認します (つまり、513 GiB のディスクは P30 (1TiB) を支払います) サイズ変更を検討します</t>
+          <t>サイズが階層と一致しない場合は、ディスク サイズを確認します (つまり、513 GiB のディスクは P30 (1TiB) を支払います) と、サイズ変更を検討してください</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4139,7 +4135,7 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>ASR の場合は、RPO/RTO とレプリケーション スループットで許可されている場合は、Standard SSD ディスクの使用を検討してください</t>
+          <t>ASR の場合、RPO/RTO とレプリケーション スループットで許可されている場合は、Standard SSD ディスクの使用を検討してください</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4181,7 +4177,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウント: 必要なホット層や GRS を確認します</t>
+          <t>ストレージ アカウント: 必要なホット層や GRS を確認する</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4223,7 +4219,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>ディスク - あらゆる場所で Premium SSD ディスクの使用を検証します: たとえば、非運用環境は Standard SSD またはオンデマンド Premium SSD にスワップできます</t>
+          <t>ディスク - あらゆる場所で Premium SSD ディスクの使用を検証: たとえば、非運用環境を Standard SSD またはオンデマンド Premium SSD にスワップできます</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4521,7 +4517,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>割り込み可能なジョブに SPOT VM を使用する: これらは、割引価格で入札および購入できる VM であり、重要でないワークロードにコスト効率の高いソリューションを提供します。</t>
+          <t>中断可能なジョブにスポット VM を使用する: これらは、割引価格で入札および購入できる VM であり、重要でないワークロードにコスト効率の高いソリューションを提供します。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4609,7 +4605,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>正規化されたサイズと最新のサイズでサイズの VM をスワップする</t>
+          <t>正規化されたサイズと最新のサイズでサイズをスワップする VM</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>

--- a/spreadsheet/macrofree/cost_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/cost_checklist.ja.xlsx
@@ -1069,11 +1069,15 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor のデータ収集ルール - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-rule-overview</t>
+          <t>Azure Monitor のデータ収集ルール -https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-rule-overview</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
-      <c r="E8" s="21" t="n"/>
+      <c r="E8" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1115,11 +1119,15 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>基になるデータソースが見つからないバックアップインスタンスを確認する</t>
+          <t>基盤となるデータソースが見つからないバックアップインスタンスを確認します</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
-      <c r="E9" s="21" t="n"/>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1157,11 +1165,15 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>関連づけられていないサービス(ディスク、NIC、IPアドレスなど)を削除またはアーカイブする</t>
+          <t>関連付けられていないサービス(ディスク、NIC、IPアドレスなど)を削除またはアーカイブする</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="n"/>
+      <c r="E10" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1203,7 +1215,11 @@
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
-      <c r="E11" s="21" t="n"/>
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1245,7 +1261,11 @@
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
-      <c r="E12" s="21" t="n"/>
+      <c r="E12" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1283,11 +1303,15 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>ミッション クリティカルでないアプリケーションの Site Recovery ストレージとバックアップのバランスを考慮する</t>
+          <t>サイトのリカバリストレージと、ミッションクリティカルでないアプリケーションのバックアップのバランスを適切に配置することを検討します</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
-      <c r="E13" s="21" t="n"/>
+      <c r="E13" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1320,16 +1344,20 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>ワークスペースの Log Analytics の保有期間</t>
+          <t>ワークスペースの Log Analytics リテンション期間</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>40 の異なるログ分析ワークスペース間で支出と節約の機会を確認する - 非運用ワークスペースに異なる保持とデータ収集を使用する - 認識と階層サイズ設定のための日次上限を作成する - 日次上限を設定する場合は、上限に達したときにアラートを作成するだけでなく、ある割合 (90% など) に達したときに通知されるアラート ルールも作成してください。- 可能であればワークスペースの変革を検討する - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr</t>
+          <t>40 の異なるログ分析ワークスペース間で支出と節約の機会を確認する - 非運用ワークスペースに異なるリテンション期間とデータ収集を使用する - 日次上限を設定する場合は、上限に達したときにアラートを作成するだけでなく、一定の割合 (90% など) に達したときに通知されるアラート ルールも作成してください。- 可能であればワークスペースの変革を検討する - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
-      <c r="E14" s="21" t="n"/>
+      <c r="E14" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1371,11 +1399,15 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>ログのパージポリシーと自動化を適用する(必要に応じて、ログをコールドストレージに移動できます)</t>
+          <t>ログのパージポリシーと自動化を強制する(必要に応じて、ログをコールドストレージに移動可能)</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
-      <c r="E15" s="21" t="n"/>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1412,7 +1444,7 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>孤立したリソース ブックを実行する - ゴースト アイテムの削除または再通知</t>
+          <t>孤立したリソース ワークブックの実行 - ゴースト アイテムの削除またはスヌーズ</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
@@ -1421,7 +1453,11 @@
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
-      <c r="E16" s="21" t="n"/>
+      <c r="E16" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1463,11 +1499,15 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>使用率の低いインスタンスをシャットダウンする</t>
+          <t>使用率の低いインスタンスのシャットダウン</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
-      <c r="E17" s="21" t="n"/>
+      <c r="E17" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1504,16 +1544,20 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>停止/割り当て解除された VM: ディスクを確認する</t>
+          <t>停止/割り当て解除された VM: ディスクを確認します</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>ディスクが本当に必要かどうかを確認し、必要でない場合は削除します。必要な場合は、下位のストレージ階層を見つけるか、バックアップを使用します。</t>
+          <t>ディスクが本当に必要かどうかを確認し、そうでない場合は削除します。必要な場合は、下位のストレージ階層を見つけるか、バックアップを使用します。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
-      <c r="E18" s="21" t="n"/>
+      <c r="E18" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1555,11 +1599,15 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>未使用のストレージを下位階層に移動し、カスタマイズされたルールを使用することを検討する - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure</t>
+          <t>未使用のストレージを下位階層に移動することを検討し、カスタマイズされたルール - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
-      <c r="E19" s="21" t="n"/>
+      <c r="E19" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1601,11 +1649,15 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>「DATEで削除」形式の一時的なアイテムに特定のタグを使用し、毎月のクリーンアップを自動化します</t>
+          <t>「DATE で削除」形式の一時的なアイテムに特定のタグを使用し、毎月のクリーンアップを自動化します</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
-      <c r="E20" s="21" t="n"/>
+      <c r="E20" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1643,11 +1695,15 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>関連サービスのダウンサイジング(およびパフォーマンスの向上)を目的としたデータベース最適化の計画</t>
+          <t>関連サービスのダウンサイジング(およびパフォーマンスの向上)を目的としたdb最適化の計画</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
-      <c r="E21" s="21" t="n"/>
+      <c r="E21" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1675,7 +1731,7 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>DB/APPのチューニング</t>
+          <t>DB/APPチューニング</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
@@ -1685,11 +1741,15 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>マイクロサービス アーキテクチャに向けてアプリをモダナイズすると、スタック全体ではなく、単一のサービスに従ってアプリをスケーリングできる効果があります</t>
+          <t>アプリをマイクロサービス アーキテクチャに向けて最新化すると、スタック全体ではなく、単一のサービスに従ってアプリをスケーリングできる効果があります</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
-      <c r="E22" s="21" t="n"/>
+      <c r="E22" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1717,7 +1777,7 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>DB/APPのチューニング</t>
+          <t>DB/APPチューニング</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
@@ -1731,7 +1791,11 @@
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
-      <c r="E23" s="21" t="n"/>
+      <c r="E23" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1759,21 +1823,25 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>DB/APPのチューニング</t>
+          <t>DB/APPチューニング</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>デマンドシェーピング</t>
+          <t>需要形成</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>PaaS サービスでデマンド シェーピングを使用すると、コストとパフォーマンスが最適化されます</t>
+          <t>PaaSサービスでデマンドシェーピングを使用すると、コストとパフォーマンスが最適化されます</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
-      <c r="E24" s="21" t="n"/>
+      <c r="E24" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1815,7 +1883,11 @@
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
-      <c r="E25" s="21" t="n"/>
+      <c r="E25" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1853,11 +1925,15 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>advisor が VM の適切なサイズ設定用に構成されていることを確認する</t>
+          <t>Advisor が VM の適切なサイジング用に構成されていることを確認します</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
-      <c r="E26" s="21" t="n"/>
+      <c r="E26" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1895,11 +1971,15 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>コスト ガバナンス プロセスに合わせて IaC スクリプトまたは DevOps パイプラインを実装することを検討してください</t>
+          <t>コスト ガバナンス プロセスに一致するように、IaC スクリプトまたは DevOps パイプラインを実装することを検討してください</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
-      <c r="E27" s="21" t="n"/>
+      <c r="E27" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1936,11 +2016,15 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>変動費のあるアプリケーション(理想的にはすべてのアプリケーション)のコストアラートを設定します</t>
+          <t>変動費があるアプリケーションのコスト アラートを設定します (理想的には、すべてのアプリケーションに対して)。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
-      <c r="E28" s="21" t="n"/>
+      <c r="E28" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1977,11 +2061,15 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Azure Automation を使用する: 反復的なタスクを自動化することで、時間とリソースを節約し、プロセスのコストを削減できます。</t>
+          <t>Azure Automation の使用: 反復的なタスクを自動化すると、時間とリソースを節約し、プロセスのコストを削減できます。</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
-      <c r="E29" s="21" t="n"/>
+      <c r="E29" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2018,11 +2106,15 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>孤立したリソース ブックを実行する</t>
+          <t>孤立したリソース ワークブックの実行</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
-      <c r="E30" s="21" t="n"/>
+      <c r="E30" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2059,11 +2151,15 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>毎月の支出のベースラインと、ベースラインに対する許容可能な節約目標を確立してみてください(この段階では、新しいサービスは最適化されません)</t>
+          <t>毎月の支出のベースラインと、ベースラインに対して許容できる貯蓄目標を設定してみてください (この段階では、新しいサービスは最適化されません)</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
-      <c r="E31" s="21" t="n"/>
+      <c r="E31" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2100,11 +2196,15 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>すべての新しいリソースに #NEW としてタグを付けるポリシーを使用して、コスト最適化ベースラインを確立します</t>
+          <t>すべての新しいリソースに #NEW としてタグを付けるポリシーを使用して、コスト最適化のベースラインを確立します</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
-      <c r="E32" s="21" t="n"/>
+      <c r="E32" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2142,11 +2242,15 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>リソースを整理してコストの洞察と説明責任を最大化する</t>
+          <t>リソースを整理して、コストに関する洞察と説明責任を最大化します</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
-      <c r="E33" s="21" t="n"/>
+      <c r="E33" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2184,11 +2288,15 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>予算の作成</t>
+          <t>予算を作成する</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
-      <c r="E34" s="21" t="n"/>
+      <c r="E34" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2226,11 +2334,15 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>コスト分析では、サービス名でグループ化された日次粒度を使用して、過去 3 か月間の支出を分析し、上位 3 人の支出者を特定します</t>
+          <t>コスト分析では、サービス名ごとにグループ化された日次粒度を使用して、過去 3 か月間の支出を分析し、上位 3 人の支出者を特定します</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
-      <c r="E35" s="21" t="n"/>
+      <c r="E35" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2268,11 +2380,15 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>コストの急上昇や異常を毎日確認する(理想的には自動請求エクスポートを使用)</t>
+          <t>コストの急増と異常がないか毎日確認します (理想的には自動請求エクスポートを使用)</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
-      <c r="E36" s="21" t="n"/>
+      <c r="E36" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2310,11 +2426,15 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>詳細な分析や統合のためのコスト検索を自動化</t>
+          <t>詳細な分析や統合のためのコスト検索の自動化</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
-      <c r="E37" s="21" t="n"/>
+      <c r="E37" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2352,11 +2472,15 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Azure の無料サービスを活用する: Azure には、DevOps、Azure Container Registry、Azure Logic Apps など、開発と運用のコストを削減するのに役立つ多数の無料サービスが用意されています。</t>
+          <t>Azure の無料サービスを活用する: Azure では、DevOps、Azure Container Registry、Azure Logic Apps など、開発と運用のコストを節約するのに役立つ多数の無料サービスを提供しています。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
-      <c r="E38" s="21" t="n"/>
+      <c r="E38" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2398,7 +2522,11 @@
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
-      <c r="E39" s="21" t="n"/>
+      <c r="E39" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2436,11 +2564,15 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>コスト配分のためにすべてのサービスにタグを使用することを検討する</t>
+          <t>コスト配分のためにすべてのサービスにタグを使用することを検討します</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
-      <c r="E40" s="21" t="n"/>
+      <c r="E40" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2482,7 +2614,11 @@
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
-      <c r="E41" s="21" t="n"/>
+      <c r="E41" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2515,20 +2651,24 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>AHUBがすべてのWindows VM、RHEL、およびSQLに適用されることを確認します</t>
+          <t>AHUB がすべての Windows VM、RHEL、SQL に適用されていることを確認します</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>すべての Windows VM でスクリプトを実行する https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- Windows VM が頻繁に作成される場合は、ポリシーの実装を検討してください</t>
+          <t>すべての Windows VM でスクリプトを実行します https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- Windows VM が頻繁に作成される場合は、ポリシーの実装を検討してください</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>コスト分析でメーターカテゴリライセンスを検索して確認してください</t>
-        </is>
-      </c>
-      <c r="E42" s="21" t="n"/>
+          <t>コスト分析でメーターカテゴリライセンスを検索して確認します</t>
+        </is>
+      </c>
+      <c r="E42" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2561,16 +2701,20 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>該当する場合は Red Hat ライセンスの確認</t>
+          <t>該当する場合は、Red Hat ライセンスを確認してください</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>これは、すでにライセンスを持っている場合は、AHUBの下に置くこともできます https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
+          <t>これは、すでにライセンスをお持ちの場合は、ACHBの下に配置することもできます https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
-      <c r="E43" s="21" t="n"/>
+      <c r="E43" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2608,11 +2752,15 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>プランを保存すると、一部の App Service プランで 17% が提供されます</t>
+          <t>節約プランでは、一部のアプリ サービス プランで 17% が提供されます</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
-      <c r="E44" s="21" t="n"/>
+      <c r="E44" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2650,11 +2798,15 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>予約済み VM ファミリを柔軟性オプションで統合する (4 から 5 ファミリ以下)</t>
+          <t>予約済み VM ファミリを柔軟性オプションで統合 (4 から 5 ファミリ以下)</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
-      <c r="E45" s="21" t="n"/>
+      <c r="E45" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2691,16 +2843,20 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>予約/割引プラン</t>
+          <t>予約/節約プラン</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Azure 予約インスタンスを利用する: この機能を使用すると、VM を 1 年または 3 年間予約できるため、PAYG 価格と比較して大幅なコスト削減が実現します。</t>
+          <t>Azure Reserved Instances の利用: この機能を使用すると、VM を 1 年または 3 年間予約できるため、PAYG の価格と比較して大幅なコスト節約を実現できます。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
-      <c r="E46" s="21" t="n"/>
+      <c r="E46" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2733,16 +2889,20 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>予約/割引プラン</t>
+          <t>予約/節約プラン</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>動的で最大限の柔軟性を必要とするすべてのワークロードに対応する Azure Savings Plans の計画</t>
+          <t>Azure Savings Plans は、動的で最大限の柔軟性を必要とするすべてのワークロードに対して計画します</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2775,16 +2935,20 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>予約/割引プラン</t>
+          <t>予約/節約プラン</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>動的ではなく、あまり変更されないすべてのワークロードに対する Azure の予約を計画する</t>
+          <t>Azure の予約を計画するには、動的性が低く、あまり変更されないすべてのワークロードを使用します</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2825,7 +2989,11 @@
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2857,16 +3025,20 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>正規化および合理化されたサイズで VM を予約する</t>
+          <t>正規化されたサイズと合理化されたサイズで VM を予約する</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>適切なサイズ最適化の後</t>
+          <t>適切なサイズの最適化後</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2899,16 +3071,20 @@
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>SQL データベース AHUB</t>
+          <t>SQL Database AHUB</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>該当するかどうかを確認し、ポリシー/変更 https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations を適用します</t>
+          <t>該当する場合を確認し、ポリシー/変更 https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations を適用します</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2946,11 +3122,15 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>VM +ライセンス部分の割引(ahub + 3YRI)は約70%の割引です</t>
+          <t>VM+ライセンス部分割引(ahub+3YRI)が約70%割引</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="n"/>
+      <c r="E52" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -2988,11 +3168,15 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Azure の予約プランと節約プランの使用率が 100% に近いことを確認するか、それを達成するために必要な変更を加えます。</t>
+          <t>Azure Reservations プランと Savings プランの使用率が 100% に近いことを確認するか、それを達成するために必要な変更を加えます。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3029,11 +3213,15 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>予約使用率が100%に近いことを確認してください。そうでない場合は、許可された SKU ポリシーを適用するか、予約を交換します</t>
+          <t>予約の利用率が100%に近いことを確認してください。そうでない場合は、許可されたSKUポリシーを適用するか、予約を交換してください</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="n"/>
+      <c r="E54" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3061,7 +3249,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
@@ -3071,11 +3259,15 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は、運用サービスのオン/オフ ポリシーを計画して適用します</t>
+          <t>運用サービスのオン/オフ ポリシーを計画して適用する (可能な場合)</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="n"/>
+      <c r="E55" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3102,7 +3294,7 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
@@ -3112,11 +3304,15 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は、非運用サービスの自動シャットダウンを含むオンデマンド ポリシーを計画して適用します</t>
+          <t>非運用サービスに対して自動シャットダウンを使用するオンデマンド ポリシーを計画して適用します (可能な場合)</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="n"/>
+      <c r="E56" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3143,21 +3339,25 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>自動スケーリング</t>
+          <t>自動スケール</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>需要に合わせて、フラットなサイジングではなく、VMSS の使用を検討してください</t>
+          <t>VMSS を使用して、フラットなサイズ設定ではなく、需要に合わせることを検討してください</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="n"/>
+      <c r="E57" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3184,21 +3384,25 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>自動スケーリング</t>
+          <t>自動スケール</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>AKS オートスケーラーを使用してクラスターの使用量に一致させる (ポッドの要件がスケーラーと一致していることを確認する)</t>
+          <t>AKS オートスケーラーを使用して、クラスターの使用量を一致させます (ポッドの要件がスケーラーと一致していることを確認してください)</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="n"/>
+      <c r="E58" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3225,21 +3429,25 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>自動スケーリング</t>
+          <t>自動スケール</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>平均的な使用量に応じた適切なサイズの PaaS サービスを提供し、自動または手動のスケーリングでスパイクに対応</t>
+          <t>平均使用量に応じてPaaSサービスを適切なサイズにし、自動または手動のスケーリングでスパイクに対応</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="n"/>
+      <c r="E59" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3266,21 +3474,25 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>自動スケーリング</t>
+          <t>自動スケール</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>該当する場合は、需要形成の計画</t>
+          <t>必要に応じて需要形成を計画する</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="n"/>
+      <c r="E60" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3307,12 +3519,12 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>自動スケーリング</t>
+          <t>自動スケール</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
@@ -3321,7 +3533,11 @@
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
-      <c r="E61" s="21" t="n"/>
+      <c r="E61" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3349,7 +3565,7 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
@@ -3359,11 +3575,15 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>該当する場合は、復旧ポイントを vault-archive に移動します (検証)</t>
+          <t>該当する場合は復旧ポイントを vault-archive に移動する (検証)</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
-      <c r="E62" s="21" t="n"/>
+      <c r="E62" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3395,21 +3615,25 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Databricks (データブリック)</t>
+          <t>データ集</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は、フォールバックでスポット VM を使用することを検討してください。クラスターの自動終了を検討してください。</t>
+          <t>可能な場合は、フォールバック付きのスポット VM の使用を検討してください。クラスターの自動終了について考えてみます。</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
-      <c r="E63" s="21" t="n"/>
+      <c r="E63" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3437,7 +3661,7 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
@@ -3451,7 +3675,11 @@
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
-      <c r="E64" s="21" t="n"/>
+      <c r="E64" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3483,7 +3711,7 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
@@ -3497,7 +3725,11 @@
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
-      <c r="E65" s="21" t="n"/>
+      <c r="E65" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3529,7 +3761,7 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
@@ -3539,11 +3771,15 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>関数 - コールド スタート - 「パッケージから実行」機能を使用します。このようにして、コードは単一のzipファイルとしてダウンロードされます。これにより、たとえば、多くのノードモジュールを持つJavascript関数が大幅に改善される可能性があります。言語固有のツールを使用してパッケージサイズを縮小します (ツリーを揺るがす Javascript アプリケーションなど)。</t>
+          <t>関数 - コールド スタート - 「パッケージから実行」機能を使用します。このようにして、コードは 1 つの zip ファイルとしてダウンロードされます。これにより、たとえば、多くのノードモジュールを持つJavascript関数が大幅に改善される可能性があります。言語固有のツール (ツリー シェイクの JavaScript アプリケーションなど) を使用してパッケージ サイズを縮小します。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
-      <c r="E66" s="21" t="n"/>
+      <c r="E66" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3575,7 +3811,7 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
@@ -3589,7 +3825,11 @@
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
-      <c r="E67" s="21" t="n"/>
+      <c r="E67" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3621,7 +3861,7 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
@@ -3631,11 +3871,15 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>さまざまな関数で自動スケーリングを使用する場合、すべてのリソースのすべての自動スケーリングを駆動する 1 つが存在する可能性があるため、別の従量課金プランに移行することを検討してください (また、CPU のより高いプランを検討してください)</t>
+          <t>さまざまな機能で自動スケーリングを使用する場合、すべてのリソースのすべての自動スケーリングを駆動する 1 つが存在する可能性があります - 別の消費プランに移動することを検討してください (CPU のより高いプランを検討してください)</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
-      <c r="E68" s="21" t="n"/>
+      <c r="E68" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3663,7 +3907,7 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
@@ -3673,11 +3917,15 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>特定のプランの関数アプリはすべて一緒にスケーリングされるため、スケーリングに関する問題はプラン内のすべてのアプリに影響を与える可能性があります。</t>
+          <t>特定のプラン内の関数アプリはすべて一緒にスケーリングされるため、スケーリングに関する問題は、プラン内のすべてのアプリに影響を与える可能性があります。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
-      <c r="E69" s="21" t="n"/>
+      <c r="E69" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3705,7 +3953,7 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
@@ -3715,11 +3963,15 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>「待機時間」に対して請求されますか?この質問は、通常、非同期操作を実行して結果を待機する C# 関数のコンテキストで尋ねられます (例: await Task.Delay(1000) や await client)。GetAsync('http://google.com') です。答えはイエスです-GB秒の計算は、関数の開始時刻と終了時刻、およびその期間のメモリ使用量に基づいています。その間に CPU アクティビティに関して実際に何が起こるかは、計算には考慮されません。この規則の 1 つの例外は、永続関数を使用している場合です。オーケストレーター関数で待機に費やされた時間に対しては課金されません。可能な場合は、デマンド シェーピング技術を適用します (開発環境?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
+          <t>「待ち時間」に対して請求されますか?この質問は通常、非同期操作を行い、結果を待つC#関数のコンテキストで尋ねられます。例: await Task.Delay(1000) or await client.GetAsync('http://google.com').答えはイエスです - GB秒の計算は、関数の開始時間と終了時間、およびその期間のメモリ使用量に基づいています。その時間に CPU アクティビティに関して実際に何が起こるかは、計算には考慮されません。このルールの例外の 1 つは、永続関数を使用している場合です。オーケストレーター関数の awaits で費やした時間に対しては課金されません。可能な場合は需要形成技術を適用します (開発環境?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
-      <c r="E70" s="21" t="n"/>
+      <c r="E70" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3747,7 +3999,7 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
@@ -3757,11 +4009,15 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク コストに対してネットワーク トポロジを評価し、該当する場合はエグレスとピアリング データを削減します</t>
+          <t>ネットワーク コストに対してネットワーク トポロジを評価し、該当する場合はエグレス データとピアリング データを削減します</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
-      <c r="E71" s="21" t="n"/>
+      <c r="E71" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3789,7 +4045,7 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
@@ -3799,11 +4055,15 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor - 既定のホームページをオフにするアプリのアプリケーション設定で、AzureWebJobsDisableHomepage を true に設定します。これにより、PoPに204(No Content)が返されるため、ヘッダーデータのみが返されます。</t>
+          <t>Frontdoor - 既定のホームページをオフにするアプリのアプリケーション設定で、AzureWebJobsDisableHomepage を true に設定します。これにより、PoP に 204 (No Content) が返されるため、ヘッダー データのみが返されます。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
-      <c r="E72" s="21" t="n"/>
+      <c r="E72" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3831,7 +4091,7 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
@@ -3841,11 +4101,15 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor - 何も返さないものへのルーティング。関数、関数プロキシを設定するか、200 (OK) を返し、コンテンツを送信しない、または最小限のコンテンツを送信 するルートを Web アプリに追加します。これの利点は、呼び出されたときにログアウトできることです。</t>
+          <t>Frontdoor - 何も返さないものへのルーティング。関数、関数プロキシを設定するか、200 (OK) を返し、コンテンツを送信しないか最小限のコンテンツを送信するルートを Web アプリに追加します。これの利点は、呼び出されたときにログアウトできることです。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
-      <c r="E73" s="21" t="n"/>
+      <c r="E73" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3873,21 +4137,25 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>PaaS(パーエス)</t>
+          <t>PaaSの</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>すべての非運用環境に適用可能な場合は、Free レベルの使用を検討してください</t>
+          <t>該当する場合は、すべての非運用環境で Free レベルを使用することを検討してください</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
-      <c r="E74" s="21" t="n"/>
+      <c r="E74" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3915,7 +4183,7 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
@@ -3925,11 +4193,15 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>スパイクにサーバーレス パターンを使用すると、コストを抑えることができます</t>
+          <t>スパイクにサーバーレスパターンを使用すると、コストを抑えることができます</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
-      <c r="E75" s="21" t="n"/>
+      <c r="E75" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3957,7 +4229,7 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
@@ -3971,7 +4243,11 @@
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
-      <c r="E76" s="21" t="n"/>
+      <c r="E76" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -3999,7 +4275,7 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
@@ -4009,11 +4285,15 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>サイズが階層と一致しない場合は、ディスク サイズを確認します (つまり、513 GiB のディスクは P30 (1TiB) を支払います) と、サイズ変更を検討してください</t>
+          <t>サイズが階層と一致しないディスク サイズを確認し (例: 513 GiB のディスクは P30 (1TiB) を支払う)、サイズ変更を検討してください</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
-      <c r="E77" s="21" t="n"/>
+      <c r="E77" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -4041,7 +4321,7 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
@@ -4051,11 +4331,15 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は、Premium や Ultra ではなく Standard SSD の使用を検討してください</t>
+          <t>可能であれば、PremiumやUltraではなく、Standard SSDの使用を検討してください</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
-      <c r="E78" s="21" t="n"/>
+      <c r="E78" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -4083,7 +4367,7 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
@@ -4093,11 +4377,15 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントの場合は、選択したレベルによってトランザクション料金が加算されていないことを確認します (次のレベルに移動する方が安くなる可能性があります)</t>
+          <t>ストレージ アカウントの場合は、選択したレベルがトランザクション料金を合計していないことを確認します (次のレベルに移動する方が安くなる可能性があります)</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
-      <c r="E79" s="21" t="n"/>
+      <c r="E79" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -4125,7 +4413,7 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
@@ -4139,7 +4427,11 @@
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
-      <c r="E80" s="21" t="n"/>
+      <c r="E80" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -4167,7 +4459,7 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
@@ -4177,11 +4469,15 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウント: 必要なホット層や GRS を確認する</t>
+          <t>ストレージ アカウント: ホット レベルや GRS が必要かどうかを確認してください</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
-      <c r="E81" s="21" t="n"/>
+      <c r="E81" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -4209,7 +4505,7 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
@@ -4219,11 +4515,15 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>ディスク - あらゆる場所で Premium SSD ディスクの使用を検証: たとえば、非運用環境を Standard SSD またはオンデマンド Premium SSD にスワップできます</t>
+          <t>ディスク - あらゆる場所での Premium SSD ディスクの使用を検証します: たとえば、運用されていないディスクは Standard SSD またはオンデマンドの Premium SSD にスワップできます</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
-      <c r="E82" s="21" t="n"/>
+      <c r="E82" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -4251,7 +4551,7 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
@@ -4261,11 +4561,15 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>予算を作成してコストを管理し、支出の異常や過剰支出のリスクを関係者に自動的に通知するアラートを作成します。</t>
+          <t>コストを管理するための予算を作成し、支出の異常と支出超過のリスクを利害関係者に自動的に通知するアラートを作成します。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
-      <c r="E83" s="21" t="n"/>
+      <c r="E83" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -4293,7 +4597,7 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
@@ -4303,11 +4607,15 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>追加のデータ分析のために、コスト データをストレージ アカウントにエクスポートします。</t>
+          <t>コスト データをストレージ アカウントにエクスポートして、追加のデータ分析を行います。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
-      <c r="E84" s="21" t="n"/>
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -4335,7 +4643,7 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
@@ -4345,11 +4653,15 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>専用 SQL プールのコストを制御するには、リソースが使用されていないときに一時停止します。</t>
+          <t>専用 SQL プールのコストを制御するには、使用されていないときにリソースを一時停止します。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
-      <c r="E85" s="21" t="n"/>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -4377,7 +4689,7 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
@@ -4391,7 +4703,11 @@
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
-      <c r="E86" s="21" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -4419,7 +4735,7 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
@@ -4433,7 +4749,11 @@
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
-      <c r="E87" s="21" t="n"/>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -4461,7 +4781,7 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
@@ -4471,11 +4791,15 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Azure Synapse Analytics のコストを節約するために、事前購入プランで Azure Synapse コミット ユニット (SCU) を 1 年間購入します。</t>
+          <t>Azure Synapse のコミット ユニット (SCU) を事前購入プランで 1 年間購入すると、Azure Synapse Analytics のコストを節約できます。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -4507,7 +4831,7 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
@@ -4517,11 +4841,15 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>中断可能なジョブにスポット VM を使用する: これらは、割引価格で入札および購入できる VM であり、重要でないワークロードにコスト効率の高いソリューションを提供します。</t>
+          <t>割り込み可能なジョブにスポット VM を使用する: これらは、割引価格で入札および購入できる VM であり、重要でないワークロードに対して費用対効果の高いソリューションを提供します。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
-      <c r="E89" s="21" t="n"/>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -4553,7 +4881,7 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
@@ -4567,7 +4895,11 @@
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
-      <c r="E90" s="21" t="n"/>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -4595,7 +4927,7 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
@@ -4605,11 +4937,15 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>正規化されたサイズと最新のサイズでサイズをスワップする VM</t>
+          <t>VM のサイズを正規化された最新のサイズとスワップします</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -4641,7 +4977,7 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
@@ -4651,11 +4987,15 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>VM の適切なサイズ設定 - 使用率を 5% 未満で監視することから始めて、その後 40% まで作業します</t>
+          <t>VM の適切なサイズ設定 - 使用率を 5% 未満で監視することから始めて、最大 40% まで作業します</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
-      <c r="E92" s="21" t="n"/>
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -4687,7 +5027,7 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
@@ -4697,11 +5037,15 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションをコンテナー化すると、VM の密度が向上し、スケーリングにかかるコストを節約できます</t>
+          <t>アプリケーションをコンテナ化すると、VMの密度が向上し、スケーリングのコストを節約できます</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -8143,7 +8487,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>このチェックはまだ検討されていません</t>
+          <t>このチェックはまだ見ていません</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -8197,7 +8541,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みで、これ以上のアクションアイテムは関連付けられていません</t>
+          <t>このチェックは検証済みであり、これ以上のアクション アイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -8209,7 +8553,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>必要なし</t>
+          <t>必須ではありません</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8219,7 +8563,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解されているが、現在の要件では不要</t>
+          <t>推奨事項は理解されているが、現在の要件では必要ではない</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -8236,7 +8580,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>適切なサイジング</t>
+          <t>適切なサイズ設定</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
